--- a/List of Kinetic Models.xlsx
+++ b/List of Kinetic Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\MyProjects\kinmodre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\kinmodre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC1CCC-3C31-4F78-9187-70522AE44A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22786C-2129-4BAA-8747-1B01D3A5DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>Model Name</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>ddsAAR26</t>
+  </si>
+  <si>
+    <t>taqTT26</t>
+  </si>
+  <si>
+    <t>G9842</t>
+  </si>
+  <si>
+    <t>Ambel et al. 2025. UniKin2 – A Universal, Pan-Reactome Kinetic Model. International Journal of Research in Medical and Clinical Science 3(2): 77-80.</t>
   </si>
 </sst>
 </file>
@@ -864,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5584041-A284-4063-80B3-FA0C9EAD7AB9}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1268,7 +1277,9 @@
       <c r="G15" s="10">
         <v>30669</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
@@ -1379,8 +1390,12 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2026</v>
+      </c>
       <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
@@ -1448,6 +1463,14 @@
       <c r="G27" s="10"/>
       <c r="H27" s="7"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/List of Kinetic Models.xlsx
+++ b/List of Kinetic Models.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\kinmodre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22786C-2129-4BAA-8747-1B01D3A5DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74A99C-6C42-40E8-BDCD-A1E808F8D53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -505,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,20 +516,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -537,6 +523,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -876,22 +868,22 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="9" customWidth="1"/>
-    <col min="5" max="7" width="22.7265625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="72.36328125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="4" customWidth="1"/>
+    <col min="5" max="7" width="15.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="130.1796875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,11 +905,11 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -969,7 +961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -995,7 +987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1047,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1203,63 +1195,63 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>2025</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>1300</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>650</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>1053</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>2025</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="4">
         <v>168</v>
       </c>
       <c r="E14" s="2">
         <v>1565</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>679</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <v>1554</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>2025</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1268,13 +1260,13 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>9420</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>9420</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>30669</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -1282,192 +1274,128 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="4">
         <v>2026</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="4">
         <v>768</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>276</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <v>1288</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>2026</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
